--- a/patchr/resources/PLATES_v2.0.0/AB[BATCH_ID].4RVP.xlsx
+++ b/patchr/resources/PLATES_v2.0.0/AB[BATCH_ID].4RVP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/PLATES_v2.0.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CD220-FDCE-6B4A-B5E3-EDDBFD0C062E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFAA2A6-5A67-AF41-8134-92AA04AD8D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43840" yWindow="4060" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43840" yWindow="4060" windowWidth="30240" windowHeight="17900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
   <si>
     <t>Assay</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>Analysis Software Version</t>
+  </si>
+  <si>
+    <t>M:FLUA</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D39BBE7-67FA-5442-B147-F43387474561}">
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -41958,8 +41961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42330,7 +42333,7 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="63" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
